--- a/QMS Form s/F-QMS-OP-01.xlsx
+++ b/QMS Form s/F-QMS-OP-01.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QMS\QMS Form s\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{22DC1AAF-23CF-4AF5-81D4-A7DD694C84F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC40EC96-5A66-4C0B-A154-479B047336B8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70161478-D895-435C-9CDE-F94688156E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F356027C-6BAC-4CD2-9E34-7D16EEAFD03B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F356027C-6BAC-4CD2-9E34-7D16EEAFD03B}"/>
   </bookViews>
   <sheets>
     <sheet name="F-QMS-OP-01" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'F-QMS-OP-01'!$A$1:$S$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'F-QMS-OP-01'!$A$1:$S$9</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>`</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Dept:</t>
-  </si>
-  <si>
-    <t>....................................</t>
   </si>
   <si>
     <t>...............................................</t>
@@ -105,37 +102,7 @@
     <t>Improve software quality by reducing post-release critical bugs.</t>
   </si>
   <si>
-    <t>Reduce the rate of Critical (P1) bugs reported post-production by 25% compared to the previous 12-month average.</t>
-  </si>
-  <si>
-    <t>(What) Strengthen code review standards; implement mandatory unit test coverage of 80% for new code. (Resources) Static code analysis tool; training on test-driven development. (Who) Software Supervisor &amp; Dev Team. (When) Q4 2024 - Q1 2025 (Implementation), then ongoing.</t>
-  </si>
-  <si>
-    <t>Software Manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monthly review of bug severity reports (SOP SW-G4); Quarterly review of unit test coverage metrics.	</t>
-  </si>
-  <si>
-    <t>December 31, 2025 (for 25% reduction target)</t>
-  </si>
-  <si>
     <t>SW-OBJ-002</t>
-  </si>
-  <si>
-    <t>Enhance stakeholder satisfaction with the Software Service Catalog process.</t>
-  </si>
-  <si>
-    <t>Achieve an average score of ≥ 4.0 (on a 5-point scale) in the quarterly post-implementation satisfaction survey.</t>
-  </si>
-  <si>
-    <t>(What) Formalize feedback loop: analyze survey results, assign action items, and communicate improvements back to subsidiaries. (Resources) Survey tool; dedicated meeting time. (Who) Shared Service Coordinator (Business Analyst/Software Supervisor). (When) Starting Q1 2025 and ongoing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Quarterly review of survey scores and action item completion (SOP SW-S1).</t>
-  </si>
-  <si>
-    <t>Ongoing (First target review: March 31, 2025)</t>
   </si>
   <si>
     <t>SW-OBJ-003</t>
@@ -144,62 +111,69 @@
     <t>Increase efficiency and predictability of the feature delivery process.</t>
   </si>
   <si>
-    <t>1. Reduce the average time from Feature Request submission to Go/No-Go decision to ≤ 7 business days (from current ≤ 10).
-2. Deliver 90% of prioritized features within the agreed-upon SLA timeline.</t>
+    <t>Software</t>
   </si>
   <si>
-    <t>(What) 1. Streamline the Feasibility Assessment (SOP SW-G2) with clearer checklists.
-2. Implement a visual release calendar and mandatory capacity planning for the Tech Team. (Resources) Project management tool (TFS) enhancements. (Who) Business Analyst, Software Supervisor, Software Manager. (When) Process updates in Q1 2025.</t>
+    <t>Develop and deliver full ERP system For AK-Group(HR , IT , Procurement , Chairman Office ,Facility ,Software,CG ,QMS)</t>
+  </si>
+  <si>
+    <t>complete 70% of the ERP system’s planned modules and reserve 30% of the delivery capacity for updates, refinements, and adjustments based on testing results, stakeholder feedback, and evolving business requirements. Progress will be tracked weekly in the project management system.</t>
+  </si>
+  <si>
+    <t>Software Manager, Software team</t>
+  </si>
+  <si>
+    <t>(What) Create SRS , BRD, Design And coding review standards, test , Release For Modules  coverage of 70% . (Resources) Software Team , Stages (Version Control TFS Repository,Scrum Whiteboard , testing Stage ,Live Stage, Github,Database Tools , Inferstructure (Who) Software Team. (When) Q4 2025 - Q4 2026.</t>
+  </si>
+  <si>
+    <t>Q4 2025 - Q4 2026</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bi-weekly follow up (Sprint retrospective, release)	</t>
+  </si>
+  <si>
+    <t>Software Manager, Software Tester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly review of bug severity reports (SOP S-SW-BF-4); Quarterly review of unit test coverage metrics.	</t>
+  </si>
+  <si>
+    <t>(What) Strengthen code review standards; implement mandatory unit test coverage of 80% for new code. (Resources) Static code analysis tool. (Who) Software Supervisor &amp; Dev Team &amp; Software Tester . (When) Q4 2025 - Q4 2026.</t>
+  </si>
+  <si>
+    <t>Reduce the rate of Critical  bugs  reported (P1) post-production by 35% compared to the previous 5-month average.</t>
+  </si>
+  <si>
+    <t>December 31, 2026 (for 50% reduction target)</t>
+  </si>
+  <si>
+    <t>1. Reduce the average time from Feature Request submission to Go/No-Go decision to ≤ 7 business days (from current ≤ 10).
+2. Deliver 90% of prioritized features within the agreed-upon timeline.</t>
+  </si>
+  <si>
+    <t>Software Manager,
+Software Team</t>
   </si>
   <si>
     <t>1. Bi-weekly review of request lead times.
-2. Monthly review of SLA compliance reports (SOP SW-S1, SW-S2).</t>
+2. Monthly review of SLA compliance reports (SOP S-SW-SD-1, S-SW-FR-2).</t>
   </si>
   <si>
-    <t xml:space="preserve">June 30, 2025	</t>
+    <t xml:space="preserve">June 30, 2026	</t>
   </si>
   <si>
-    <t>SW-OBJ-004</t>
-  </si>
-  <si>
-    <t>Ensure robust release management with zero unplanned major service disruptions.</t>
-  </si>
-  <si>
-    <t>100% of scheduled releases will have a documented, tested rollback plan. Zero releases causing Severity 1 (system-down) incidents in the first 24 hours post-deployment.</t>
-  </si>
-  <si>
-    <t>What) Mandate the creation and dry-run testing of a rollback plan as part of the Pre-Release Validation (SOP SW-S2). (Resources) Staging environment for rollback tests. (Who) Software Supervisor, Systems Admin. (When) Implement for all releases starting Q1 2025.</t>
-  </si>
-  <si>
-    <t>Review of release documentation and post-release incident logs (SOP SW-S2).</t>
-  </si>
-  <si>
-    <t>Ongoing (Process compliance target: 100% from Q1 2025)</t>
-  </si>
-  <si>
-    <t>SW-OBJ-005</t>
-  </si>
-  <si>
-    <t>Strengthen the Change Management process to minimize risk.</t>
-  </si>
-  <si>
-    <t>100% of High &amp; Critical Risk Change Requests (per Risk Assessment Matrix) are reviewed and approved by the CAB before implementation.</t>
-  </si>
-  <si>
-    <t>(What) Formalize the Risk Assessment Matrix criteria and CAB approval workflow within the Change Request Form (SOP SW-G3). (Resources) Updated forms; CAB charter. (Who) Business Analyst (for assessment), CAB Chairman (SW Manager). (When) Process update in Q1 2025.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Monthly audit of Change Request records against the CAB meeting minutes.</t>
-  </si>
-  <si>
-    <t>March 31, 2025 (for process implementation)</t>
+    <t>(What) 1. Streamline the Feasibility Assessment (SOP S-SW-FR-2) with clearer checklists.
+2. Implement a visual release calendar and mandatory capacity planning for the Tech Team. (Resources) Software Team , Project management tool (TFS) enhancements. (Who) Software Manager , Software Team. (When) Process updates in Q2 - Q3 2026.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,8 +214,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,8 +234,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -324,36 +310,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -362,19 +318,6 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -403,44 +346,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -452,20 +367,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -473,29 +391,38 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -880,13 +807,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A652E385-D867-4B4E-8402-BB4DE82AD4F2}">
-  <dimension ref="A1:BH317"/>
+  <dimension ref="A1:BH314"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="95" zoomScaleNormal="80" zoomScaleSheetLayoutView="95" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="S8" sqref="A7:S8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
@@ -895,7 +822,7 @@
     <col min="19" max="19" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="75" customHeight="1">
+    <row r="1" spans="1:60" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -959,28 +886,28 @@
       <c r="BG1" s="1"/>
       <c r="BH1" s="1"/>
     </row>
-    <row r="2" spans="1:60" ht="80.25" customHeight="1">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:60" ht="80.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
@@ -1023,7 +950,7 @@
       <c r="BG2" s="1"/>
       <c r="BH2" s="1"/>
     </row>
-    <row r="3" spans="1:60" ht="18.75">
+    <row r="3" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1085,12 +1012,12 @@
       <c r="BG3" s="1"/>
       <c r="BH3" s="1"/>
     </row>
-    <row r="4" spans="1:60" ht="22.5">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:60" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>3</v>
+      <c r="B4" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -1104,14 +1031,14 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="9" t="s">
-        <v>5</v>
       </c>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
@@ -1155,7 +1082,7 @@
       <c r="BG4" s="1"/>
       <c r="BH4" s="1"/>
     </row>
-    <row r="5" spans="1:60" ht="19.5" thickBot="1">
+    <row r="5" spans="1:60" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1217,41 +1144,41 @@
       <c r="BG5" s="1"/>
       <c r="BH5" s="1"/>
     </row>
-    <row r="6" spans="1:60" ht="118.5" customHeight="1">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:60" ht="118.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="25" t="s">
+      <c r="F6" s="17"/>
+      <c r="G6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="25" t="s">
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="25" t="s">
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="25" t="s">
+      <c r="O6" s="16"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="O6" s="25"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="25" t="s">
+      <c r="R6" s="17"/>
+      <c r="S6" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="R6" s="26"/>
-      <c r="S6" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
@@ -1295,192 +1222,196 @@
       <c r="BG6" s="1"/>
       <c r="BH6" s="1"/>
     </row>
-    <row r="7" spans="1:60" ht="153.75" customHeight="1">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:60" s="19" customFormat="1" ht="239.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="27"/>
+      <c r="G7" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="26"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="26"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="R7" s="27"/>
+      <c r="S7" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="18"/>
+      <c r="AX7" s="18"/>
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="18"/>
+      <c r="BA7" s="18"/>
+      <c r="BB7" s="18"/>
+      <c r="BC7" s="18"/>
+      <c r="BD7" s="18"/>
+      <c r="BE7" s="18"/>
+      <c r="BF7" s="18"/>
+      <c r="BG7" s="18"/>
+      <c r="BH7" s="18"/>
+    </row>
+    <row r="8" spans="1:60" s="19" customFormat="1" ht="309" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>15</v>
+      <c r="C8" s="26"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="25" t="s">
+        <v>29</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="14" t="s">
+      <c r="F8" s="27"/>
+      <c r="G8" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="26"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="26"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="R8" s="27"/>
+      <c r="S8" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="18"/>
+      <c r="AH8" s="18"/>
+      <c r="AI8" s="18"/>
+      <c r="AJ8" s="18"/>
+      <c r="AK8" s="18"/>
+      <c r="AL8" s="18"/>
+      <c r="AM8" s="18"/>
+      <c r="AN8" s="18"/>
+      <c r="AO8" s="18"/>
+      <c r="AP8" s="18"/>
+      <c r="AQ8" s="18"/>
+      <c r="AR8" s="18"/>
+      <c r="AS8" s="18"/>
+      <c r="AT8" s="18"/>
+      <c r="AU8" s="18"/>
+      <c r="AV8" s="18"/>
+      <c r="AW8" s="18"/>
+      <c r="AX8" s="18"/>
+      <c r="AY8" s="18"/>
+      <c r="AZ8" s="18"/>
+      <c r="BA8" s="18"/>
+      <c r="BB8" s="18"/>
+      <c r="BC8" s="18"/>
+      <c r="BD8" s="18"/>
+      <c r="BE8" s="18"/>
+      <c r="BF8" s="18"/>
+      <c r="BG8" s="18"/>
+      <c r="BH8" s="18"/>
+    </row>
+    <row r="9" spans="1:60" ht="220.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="14" t="s">
+      <c r="B9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="15"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" s="15"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="R7" s="16"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
-      <c r="AI7" s="1"/>
-      <c r="AJ7" s="1"/>
-      <c r="AK7" s="1"/>
-      <c r="AL7" s="1"/>
-      <c r="AM7" s="1"/>
-      <c r="AN7" s="1"/>
-      <c r="AO7" s="1"/>
-      <c r="AP7" s="1"/>
-      <c r="AQ7" s="1"/>
-      <c r="AR7" s="1"/>
-      <c r="AS7" s="1"/>
-      <c r="AT7" s="1"/>
-      <c r="AU7" s="1"/>
-      <c r="AV7" s="1"/>
-      <c r="AW7" s="1"/>
-      <c r="AX7" s="1"/>
-      <c r="AY7" s="1"/>
-      <c r="AZ7" s="1"/>
-      <c r="BA7" s="1"/>
-      <c r="BB7" s="1"/>
-      <c r="BC7" s="1"/>
-      <c r="BD7" s="1"/>
-      <c r="BE7" s="1"/>
-      <c r="BF7" s="1"/>
-      <c r="BG7" s="1"/>
-      <c r="BH7" s="1"/>
-    </row>
-    <row r="8" spans="1:60" ht="176.25" customHeight="1">
-      <c r="A8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="O8" s="15"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="R8" s="16"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
-      <c r="AI8" s="1"/>
-      <c r="AJ8" s="1"/>
-      <c r="AK8" s="1"/>
-      <c r="AL8" s="1"/>
-      <c r="AM8" s="1"/>
-      <c r="AN8" s="1"/>
-      <c r="AO8" s="1"/>
-      <c r="AP8" s="1"/>
-      <c r="AQ8" s="1"/>
-      <c r="AR8" s="1"/>
-      <c r="AS8" s="1"/>
-      <c r="AT8" s="1"/>
-      <c r="AU8" s="1"/>
-      <c r="AV8" s="1"/>
-      <c r="AW8" s="1"/>
-      <c r="AX8" s="1"/>
-      <c r="AY8" s="1"/>
-      <c r="AZ8" s="1"/>
-      <c r="BA8" s="1"/>
-      <c r="BB8" s="1"/>
-      <c r="BC8" s="1"/>
-      <c r="BD8" s="1"/>
-      <c r="BE8" s="1"/>
-      <c r="BF8" s="1"/>
-      <c r="BG8" s="1"/>
-      <c r="BH8" s="1"/>
-    </row>
-    <row r="9" spans="1:60" ht="220.5" customHeight="1">
-      <c r="A9" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="15"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="14" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="O9" s="15"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="14" t="s">
+      <c r="F9" s="9"/>
+      <c r="G9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="R9" s="16"/>
-      <c r="S9" s="11"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="10"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="R9" s="9"/>
+      <c r="S9" s="7"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
@@ -1523,40 +1454,26 @@
       <c r="BG9" s="1"/>
       <c r="BH9" s="1"/>
     </row>
-    <row r="10" spans="1:60" ht="165" customHeight="1">
-      <c r="A10" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="O10" s="15"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="R10" s="16"/>
-      <c r="S10" s="11"/>
+    <row r="10" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="20"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
@@ -1599,40 +1516,26 @@
       <c r="BG10" s="1"/>
       <c r="BH10" s="1"/>
     </row>
-    <row r="11" spans="1:60" ht="174.75" customHeight="1">
-      <c r="A11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="15"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="O11" s="15"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="R11" s="16"/>
-      <c r="S11" s="11"/>
+    <row r="11" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="20"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
@@ -1675,26 +1578,26 @@
       <c r="BG11" s="1"/>
       <c r="BH11" s="1"/>
     </row>
-    <row r="12" spans="1:60" ht="39.950000000000003" customHeight="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="22"/>
+    <row r="12" spans="1:60" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="22"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
       <c r="L12" s="23"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="22"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
       <c r="O12" s="23"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="4"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="22"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
@@ -1737,26 +1640,26 @@
       <c r="BG12" s="1"/>
       <c r="BH12" s="1"/>
     </row>
-    <row r="13" spans="1:60" ht="39.950000000000003" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="22"/>
+    <row r="13" spans="1:60" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="22"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="22"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
       <c r="L13" s="23"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="22"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
       <c r="O13" s="23"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="4"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="22"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
@@ -1799,26 +1702,26 @@
       <c r="BG13" s="1"/>
       <c r="BH13" s="1"/>
     </row>
-    <row r="14" spans="1:60" ht="39.950000000000003" customHeight="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="22"/>
+    <row r="14" spans="1:60" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="22"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
       <c r="L14" s="23"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="22"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
       <c r="O14" s="23"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="4"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="22"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
@@ -1861,26 +1764,26 @@
       <c r="BG14" s="1"/>
       <c r="BH14" s="1"/>
     </row>
-    <row r="15" spans="1:60" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="A15" s="5"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="6"/>
+    <row r="15" spans="1:60" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="22"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
@@ -1923,7 +1826,7 @@
       <c r="BG15" s="1"/>
       <c r="BH15" s="1"/>
     </row>
-    <row r="16" spans="1:60" ht="18.75">
+    <row r="16" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1985,7 +1888,7 @@
       <c r="BG16" s="1"/>
       <c r="BH16" s="1"/>
     </row>
-    <row r="17" spans="1:60" ht="18.75">
+    <row r="17" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2047,7 +1950,7 @@
       <c r="BG17" s="1"/>
       <c r="BH17" s="1"/>
     </row>
-    <row r="18" spans="1:60" ht="18.75">
+    <row r="18" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2109,7 +2012,7 @@
       <c r="BG18" s="1"/>
       <c r="BH18" s="1"/>
     </row>
-    <row r="19" spans="1:60" ht="18.75">
+    <row r="19" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2171,7 +2074,7 @@
       <c r="BG19" s="1"/>
       <c r="BH19" s="1"/>
     </row>
-    <row r="20" spans="1:60" ht="18.75">
+    <row r="20" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2233,7 +2136,7 @@
       <c r="BG20" s="1"/>
       <c r="BH20" s="1"/>
     </row>
-    <row r="21" spans="1:60" ht="18.75">
+    <row r="21" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2295,7 +2198,7 @@
       <c r="BG21" s="1"/>
       <c r="BH21" s="1"/>
     </row>
-    <row r="22" spans="1:60" ht="18.75">
+    <row r="22" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2357,7 +2260,7 @@
       <c r="BG22" s="1"/>
       <c r="BH22" s="1"/>
     </row>
-    <row r="23" spans="1:60" ht="18.75">
+    <row r="23" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2419,7 +2322,7 @@
       <c r="BG23" s="1"/>
       <c r="BH23" s="1"/>
     </row>
-    <row r="24" spans="1:60" ht="18.75">
+    <row r="24" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2481,7 +2384,7 @@
       <c r="BG24" s="1"/>
       <c r="BH24" s="1"/>
     </row>
-    <row r="25" spans="1:60" ht="18.75">
+    <row r="25" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2543,7 +2446,7 @@
       <c r="BG25" s="1"/>
       <c r="BH25" s="1"/>
     </row>
-    <row r="26" spans="1:60" ht="18.75">
+    <row r="26" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2605,7 +2508,7 @@
       <c r="BG26" s="1"/>
       <c r="BH26" s="1"/>
     </row>
-    <row r="27" spans="1:60" ht="18.75">
+    <row r="27" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2667,7 +2570,7 @@
       <c r="BG27" s="1"/>
       <c r="BH27" s="1"/>
     </row>
-    <row r="28" spans="1:60" ht="18.75">
+    <row r="28" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2729,7 +2632,7 @@
       <c r="BG28" s="1"/>
       <c r="BH28" s="1"/>
     </row>
-    <row r="29" spans="1:60" ht="18.75">
+    <row r="29" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2791,7 +2694,7 @@
       <c r="BG29" s="1"/>
       <c r="BH29" s="1"/>
     </row>
-    <row r="30" spans="1:60" ht="18.75">
+    <row r="30" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2853,7 +2756,7 @@
       <c r="BG30" s="1"/>
       <c r="BH30" s="1"/>
     </row>
-    <row r="31" spans="1:60" ht="18.75">
+    <row r="31" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2915,7 +2818,7 @@
       <c r="BG31" s="1"/>
       <c r="BH31" s="1"/>
     </row>
-    <row r="32" spans="1:60" ht="18.75">
+    <row r="32" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2977,7 +2880,7 @@
       <c r="BG32" s="1"/>
       <c r="BH32" s="1"/>
     </row>
-    <row r="33" spans="1:60" ht="18.75">
+    <row r="33" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -3039,7 +2942,7 @@
       <c r="BG33" s="1"/>
       <c r="BH33" s="1"/>
     </row>
-    <row r="34" spans="1:60" ht="18.75">
+    <row r="34" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -3101,7 +3004,7 @@
       <c r="BG34" s="1"/>
       <c r="BH34" s="1"/>
     </row>
-    <row r="35" spans="1:60" ht="18.75">
+    <row r="35" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -3163,7 +3066,7 @@
       <c r="BG35" s="1"/>
       <c r="BH35" s="1"/>
     </row>
-    <row r="36" spans="1:60" ht="18.75">
+    <row r="36" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -3225,7 +3128,7 @@
       <c r="BG36" s="1"/>
       <c r="BH36" s="1"/>
     </row>
-    <row r="37" spans="1:60" ht="18.75">
+    <row r="37" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -3287,7 +3190,7 @@
       <c r="BG37" s="1"/>
       <c r="BH37" s="1"/>
     </row>
-    <row r="38" spans="1:60" ht="18.75">
+    <row r="38" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -3349,7 +3252,7 @@
       <c r="BG38" s="1"/>
       <c r="BH38" s="1"/>
     </row>
-    <row r="39" spans="1:60" ht="18.75">
+    <row r="39" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3411,7 +3314,7 @@
       <c r="BG39" s="1"/>
       <c r="BH39" s="1"/>
     </row>
-    <row r="40" spans="1:60" ht="18.75">
+    <row r="40" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3473,7 +3376,7 @@
       <c r="BG40" s="1"/>
       <c r="BH40" s="1"/>
     </row>
-    <row r="41" spans="1:60" ht="18.75">
+    <row r="41" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -3535,7 +3438,7 @@
       <c r="BG41" s="1"/>
       <c r="BH41" s="1"/>
     </row>
-    <row r="42" spans="1:60" ht="18.75">
+    <row r="42" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -3597,7 +3500,7 @@
       <c r="BG42" s="1"/>
       <c r="BH42" s="1"/>
     </row>
-    <row r="43" spans="1:60" ht="18.75">
+    <row r="43" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -3659,7 +3562,7 @@
       <c r="BG43" s="1"/>
       <c r="BH43" s="1"/>
     </row>
-    <row r="44" spans="1:60" ht="18.75">
+    <row r="44" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -3721,7 +3624,7 @@
       <c r="BG44" s="1"/>
       <c r="BH44" s="1"/>
     </row>
-    <row r="45" spans="1:60" ht="18.75">
+    <row r="45" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3783,7 +3686,7 @@
       <c r="BG45" s="1"/>
       <c r="BH45" s="1"/>
     </row>
-    <row r="46" spans="1:60" ht="18.75">
+    <row r="46" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3845,7 +3748,7 @@
       <c r="BG46" s="1"/>
       <c r="BH46" s="1"/>
     </row>
-    <row r="47" spans="1:60" ht="18.75">
+    <row r="47" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -3907,7 +3810,7 @@
       <c r="BG47" s="1"/>
       <c r="BH47" s="1"/>
     </row>
-    <row r="48" spans="1:60" ht="18.75">
+    <row r="48" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3969,7 +3872,7 @@
       <c r="BG48" s="1"/>
       <c r="BH48" s="1"/>
     </row>
-    <row r="49" spans="1:60" ht="18.75">
+    <row r="49" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -4031,7 +3934,7 @@
       <c r="BG49" s="1"/>
       <c r="BH49" s="1"/>
     </row>
-    <row r="50" spans="1:60" ht="18.75">
+    <row r="50" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -4093,7 +3996,7 @@
       <c r="BG50" s="1"/>
       <c r="BH50" s="1"/>
     </row>
-    <row r="51" spans="1:60" ht="18.75">
+    <row r="51" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -4155,7 +4058,7 @@
       <c r="BG51" s="1"/>
       <c r="BH51" s="1"/>
     </row>
-    <row r="52" spans="1:60" ht="18.75">
+    <row r="52" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -4217,7 +4120,7 @@
       <c r="BG52" s="1"/>
       <c r="BH52" s="1"/>
     </row>
-    <row r="53" spans="1:60" ht="18.75">
+    <row r="53" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -4279,7 +4182,7 @@
       <c r="BG53" s="1"/>
       <c r="BH53" s="1"/>
     </row>
-    <row r="54" spans="1:60" ht="18.75">
+    <row r="54" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -4341,7 +4244,7 @@
       <c r="BG54" s="1"/>
       <c r="BH54" s="1"/>
     </row>
-    <row r="55" spans="1:60" ht="18.75">
+    <row r="55" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -4403,7 +4306,7 @@
       <c r="BG55" s="1"/>
       <c r="BH55" s="1"/>
     </row>
-    <row r="56" spans="1:60" ht="18.75">
+    <row r="56" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -4465,7 +4368,7 @@
       <c r="BG56" s="1"/>
       <c r="BH56" s="1"/>
     </row>
-    <row r="57" spans="1:60" ht="18.75">
+    <row r="57" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -4527,7 +4430,7 @@
       <c r="BG57" s="1"/>
       <c r="BH57" s="1"/>
     </row>
-    <row r="58" spans="1:60" ht="18.75">
+    <row r="58" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -4589,7 +4492,7 @@
       <c r="BG58" s="1"/>
       <c r="BH58" s="1"/>
     </row>
-    <row r="59" spans="1:60" ht="18.75">
+    <row r="59" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -4651,7 +4554,7 @@
       <c r="BG59" s="1"/>
       <c r="BH59" s="1"/>
     </row>
-    <row r="60" spans="1:60" ht="18.75">
+    <row r="60" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -4713,7 +4616,7 @@
       <c r="BG60" s="1"/>
       <c r="BH60" s="1"/>
     </row>
-    <row r="61" spans="1:60" ht="18.75">
+    <row r="61" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -4775,7 +4678,7 @@
       <c r="BG61" s="1"/>
       <c r="BH61" s="1"/>
     </row>
-    <row r="62" spans="1:60" ht="18.75">
+    <row r="62" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -4837,7 +4740,7 @@
       <c r="BG62" s="1"/>
       <c r="BH62" s="1"/>
     </row>
-    <row r="63" spans="1:60" ht="18.75">
+    <row r="63" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -4899,7 +4802,7 @@
       <c r="BG63" s="1"/>
       <c r="BH63" s="1"/>
     </row>
-    <row r="64" spans="1:60" ht="18.75">
+    <row r="64" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -4961,7 +4864,7 @@
       <c r="BG64" s="1"/>
       <c r="BH64" s="1"/>
     </row>
-    <row r="65" spans="1:60" ht="18.75">
+    <row r="65" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -5023,7 +4926,7 @@
       <c r="BG65" s="1"/>
       <c r="BH65" s="1"/>
     </row>
-    <row r="66" spans="1:60" ht="18.75">
+    <row r="66" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -5085,7 +4988,7 @@
       <c r="BG66" s="1"/>
       <c r="BH66" s="1"/>
     </row>
-    <row r="67" spans="1:60" ht="18.75">
+    <row r="67" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -5147,7 +5050,7 @@
       <c r="BG67" s="1"/>
       <c r="BH67" s="1"/>
     </row>
-    <row r="68" spans="1:60" ht="18.75">
+    <row r="68" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -5209,7 +5112,7 @@
       <c r="BG68" s="1"/>
       <c r="BH68" s="1"/>
     </row>
-    <row r="69" spans="1:60" ht="18.75">
+    <row r="69" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -5271,7 +5174,7 @@
       <c r="BG69" s="1"/>
       <c r="BH69" s="1"/>
     </row>
-    <row r="70" spans="1:60" ht="18.75">
+    <row r="70" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -5333,7 +5236,7 @@
       <c r="BG70" s="1"/>
       <c r="BH70" s="1"/>
     </row>
-    <row r="71" spans="1:60" ht="18.75">
+    <row r="71" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -5395,7 +5298,7 @@
       <c r="BG71" s="1"/>
       <c r="BH71" s="1"/>
     </row>
-    <row r="72" spans="1:60" ht="18.75">
+    <row r="72" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -5457,7 +5360,7 @@
       <c r="BG72" s="1"/>
       <c r="BH72" s="1"/>
     </row>
-    <row r="73" spans="1:60" ht="18.75">
+    <row r="73" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -5519,7 +5422,7 @@
       <c r="BG73" s="1"/>
       <c r="BH73" s="1"/>
     </row>
-    <row r="74" spans="1:60" ht="18.75">
+    <row r="74" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -5581,7 +5484,7 @@
       <c r="BG74" s="1"/>
       <c r="BH74" s="1"/>
     </row>
-    <row r="75" spans="1:60" ht="18.75">
+    <row r="75" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -5643,7 +5546,7 @@
       <c r="BG75" s="1"/>
       <c r="BH75" s="1"/>
     </row>
-    <row r="76" spans="1:60" ht="18.75">
+    <row r="76" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -5705,7 +5608,7 @@
       <c r="BG76" s="1"/>
       <c r="BH76" s="1"/>
     </row>
-    <row r="77" spans="1:60" ht="18.75">
+    <row r="77" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -5767,7 +5670,7 @@
       <c r="BG77" s="1"/>
       <c r="BH77" s="1"/>
     </row>
-    <row r="78" spans="1:60" ht="18.75">
+    <row r="78" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -5829,7 +5732,7 @@
       <c r="BG78" s="1"/>
       <c r="BH78" s="1"/>
     </row>
-    <row r="79" spans="1:60" ht="18.75">
+    <row r="79" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -5891,7 +5794,7 @@
       <c r="BG79" s="1"/>
       <c r="BH79" s="1"/>
     </row>
-    <row r="80" spans="1:60" ht="18.75">
+    <row r="80" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -5953,7 +5856,7 @@
       <c r="BG80" s="1"/>
       <c r="BH80" s="1"/>
     </row>
-    <row r="81" spans="1:60" ht="18.75">
+    <row r="81" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -6015,7 +5918,7 @@
       <c r="BG81" s="1"/>
       <c r="BH81" s="1"/>
     </row>
-    <row r="82" spans="1:60" ht="18.75">
+    <row r="82" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -6077,7 +5980,7 @@
       <c r="BG82" s="1"/>
       <c r="BH82" s="1"/>
     </row>
-    <row r="83" spans="1:60" ht="18.75">
+    <row r="83" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -6139,7 +6042,7 @@
       <c r="BG83" s="1"/>
       <c r="BH83" s="1"/>
     </row>
-    <row r="84" spans="1:60" ht="18.75">
+    <row r="84" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -6201,7 +6104,7 @@
       <c r="BG84" s="1"/>
       <c r="BH84" s="1"/>
     </row>
-    <row r="85" spans="1:60" ht="18.75">
+    <row r="85" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -6263,7 +6166,7 @@
       <c r="BG85" s="1"/>
       <c r="BH85" s="1"/>
     </row>
-    <row r="86" spans="1:60" ht="18.75">
+    <row r="86" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -6325,7 +6228,7 @@
       <c r="BG86" s="1"/>
       <c r="BH86" s="1"/>
     </row>
-    <row r="87" spans="1:60" ht="18.75">
+    <row r="87" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -6387,7 +6290,7 @@
       <c r="BG87" s="1"/>
       <c r="BH87" s="1"/>
     </row>
-    <row r="88" spans="1:60" ht="18.75">
+    <row r="88" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -6449,7 +6352,7 @@
       <c r="BG88" s="1"/>
       <c r="BH88" s="1"/>
     </row>
-    <row r="89" spans="1:60" ht="18.75">
+    <row r="89" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -6511,7 +6414,7 @@
       <c r="BG89" s="1"/>
       <c r="BH89" s="1"/>
     </row>
-    <row r="90" spans="1:60" ht="18.75">
+    <row r="90" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -6573,7 +6476,7 @@
       <c r="BG90" s="1"/>
       <c r="BH90" s="1"/>
     </row>
-    <row r="91" spans="1:60" ht="18.75">
+    <row r="91" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -6635,7 +6538,7 @@
       <c r="BG91" s="1"/>
       <c r="BH91" s="1"/>
     </row>
-    <row r="92" spans="1:60" ht="18.75">
+    <row r="92" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -6697,7 +6600,7 @@
       <c r="BG92" s="1"/>
       <c r="BH92" s="1"/>
     </row>
-    <row r="93" spans="1:60" ht="18.75">
+    <row r="93" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -6759,7 +6662,7 @@
       <c r="BG93" s="1"/>
       <c r="BH93" s="1"/>
     </row>
-    <row r="94" spans="1:60" ht="18.75">
+    <row r="94" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -6821,7 +6724,7 @@
       <c r="BG94" s="1"/>
       <c r="BH94" s="1"/>
     </row>
-    <row r="95" spans="1:60" ht="18.75">
+    <row r="95" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -6883,7 +6786,7 @@
       <c r="BG95" s="1"/>
       <c r="BH95" s="1"/>
     </row>
-    <row r="96" spans="1:60" ht="18.75">
+    <row r="96" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -6945,7 +6848,7 @@
       <c r="BG96" s="1"/>
       <c r="BH96" s="1"/>
     </row>
-    <row r="97" spans="1:60" ht="18.75">
+    <row r="97" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -7007,7 +6910,7 @@
       <c r="BG97" s="1"/>
       <c r="BH97" s="1"/>
     </row>
-    <row r="98" spans="1:60" ht="18.75">
+    <row r="98" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -7069,7 +6972,7 @@
       <c r="BG98" s="1"/>
       <c r="BH98" s="1"/>
     </row>
-    <row r="99" spans="1:60" ht="18.75">
+    <row r="99" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -7131,7 +7034,7 @@
       <c r="BG99" s="1"/>
       <c r="BH99" s="1"/>
     </row>
-    <row r="100" spans="1:60" ht="18.75">
+    <row r="100" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -7193,7 +7096,7 @@
       <c r="BG100" s="1"/>
       <c r="BH100" s="1"/>
     </row>
-    <row r="101" spans="1:60" ht="18.75">
+    <row r="101" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -7255,7 +7158,7 @@
       <c r="BG101" s="1"/>
       <c r="BH101" s="1"/>
     </row>
-    <row r="102" spans="1:60" ht="18.75">
+    <row r="102" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -7317,7 +7220,7 @@
       <c r="BG102" s="1"/>
       <c r="BH102" s="1"/>
     </row>
-    <row r="103" spans="1:60" ht="18.75">
+    <row r="103" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -7379,7 +7282,7 @@
       <c r="BG103" s="1"/>
       <c r="BH103" s="1"/>
     </row>
-    <row r="104" spans="1:60" ht="18.75">
+    <row r="104" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -7441,7 +7344,7 @@
       <c r="BG104" s="1"/>
       <c r="BH104" s="1"/>
     </row>
-    <row r="105" spans="1:60" ht="18.75">
+    <row r="105" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -7503,7 +7406,7 @@
       <c r="BG105" s="1"/>
       <c r="BH105" s="1"/>
     </row>
-    <row r="106" spans="1:60" ht="18.75">
+    <row r="106" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -7565,7 +7468,7 @@
       <c r="BG106" s="1"/>
       <c r="BH106" s="1"/>
     </row>
-    <row r="107" spans="1:60" ht="18.75">
+    <row r="107" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -7627,7 +7530,7 @@
       <c r="BG107" s="1"/>
       <c r="BH107" s="1"/>
     </row>
-    <row r="108" spans="1:60" ht="18.75">
+    <row r="108" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -7689,7 +7592,7 @@
       <c r="BG108" s="1"/>
       <c r="BH108" s="1"/>
     </row>
-    <row r="109" spans="1:60" ht="18.75">
+    <row r="109" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -7751,7 +7654,7 @@
       <c r="BG109" s="1"/>
       <c r="BH109" s="1"/>
     </row>
-    <row r="110" spans="1:60" ht="18.75">
+    <row r="110" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -7813,7 +7716,7 @@
       <c r="BG110" s="1"/>
       <c r="BH110" s="1"/>
     </row>
-    <row r="111" spans="1:60" ht="18.75">
+    <row r="111" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -7875,7 +7778,7 @@
       <c r="BG111" s="1"/>
       <c r="BH111" s="1"/>
     </row>
-    <row r="112" spans="1:60" ht="18.75">
+    <row r="112" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -7937,7 +7840,7 @@
       <c r="BG112" s="1"/>
       <c r="BH112" s="1"/>
     </row>
-    <row r="113" spans="1:60" ht="18.75">
+    <row r="113" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -7999,7 +7902,7 @@
       <c r="BG113" s="1"/>
       <c r="BH113" s="1"/>
     </row>
-    <row r="114" spans="1:60" ht="18.75">
+    <row r="114" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -8061,7 +7964,7 @@
       <c r="BG114" s="1"/>
       <c r="BH114" s="1"/>
     </row>
-    <row r="115" spans="1:60" ht="18.75">
+    <row r="115" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -8123,7 +8026,7 @@
       <c r="BG115" s="1"/>
       <c r="BH115" s="1"/>
     </row>
-    <row r="116" spans="1:60" ht="18.75">
+    <row r="116" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -8185,7 +8088,7 @@
       <c r="BG116" s="1"/>
       <c r="BH116" s="1"/>
     </row>
-    <row r="117" spans="1:60" ht="18.75">
+    <row r="117" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -8247,7 +8150,7 @@
       <c r="BG117" s="1"/>
       <c r="BH117" s="1"/>
     </row>
-    <row r="118" spans="1:60" ht="18.75">
+    <row r="118" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -8309,7 +8212,7 @@
       <c r="BG118" s="1"/>
       <c r="BH118" s="1"/>
     </row>
-    <row r="119" spans="1:60" ht="18.75">
+    <row r="119" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -8371,7 +8274,7 @@
       <c r="BG119" s="1"/>
       <c r="BH119" s="1"/>
     </row>
-    <row r="120" spans="1:60" ht="18.75">
+    <row r="120" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -8433,7 +8336,7 @@
       <c r="BG120" s="1"/>
       <c r="BH120" s="1"/>
     </row>
-    <row r="121" spans="1:60" ht="18.75">
+    <row r="121" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -8495,7 +8398,7 @@
       <c r="BG121" s="1"/>
       <c r="BH121" s="1"/>
     </row>
-    <row r="122" spans="1:60" ht="18.75">
+    <row r="122" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -8557,7 +8460,7 @@
       <c r="BG122" s="1"/>
       <c r="BH122" s="1"/>
     </row>
-    <row r="123" spans="1:60" ht="18.75">
+    <row r="123" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -8619,7 +8522,7 @@
       <c r="BG123" s="1"/>
       <c r="BH123" s="1"/>
     </row>
-    <row r="124" spans="1:60" ht="18.75">
+    <row r="124" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -8681,7 +8584,7 @@
       <c r="BG124" s="1"/>
       <c r="BH124" s="1"/>
     </row>
-    <row r="125" spans="1:60" ht="18.75">
+    <row r="125" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -8743,7 +8646,7 @@
       <c r="BG125" s="1"/>
       <c r="BH125" s="1"/>
     </row>
-    <row r="126" spans="1:60" ht="18.75">
+    <row r="126" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -8805,7 +8708,7 @@
       <c r="BG126" s="1"/>
       <c r="BH126" s="1"/>
     </row>
-    <row r="127" spans="1:60" ht="18.75">
+    <row r="127" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -8867,7 +8770,7 @@
       <c r="BG127" s="1"/>
       <c r="BH127" s="1"/>
     </row>
-    <row r="128" spans="1:60" ht="18.75">
+    <row r="128" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -8929,7 +8832,7 @@
       <c r="BG128" s="1"/>
       <c r="BH128" s="1"/>
     </row>
-    <row r="129" spans="1:60" ht="18.75">
+    <row r="129" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -8991,7 +8894,7 @@
       <c r="BG129" s="1"/>
       <c r="BH129" s="1"/>
     </row>
-    <row r="130" spans="1:60" ht="18.75">
+    <row r="130" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -9053,7 +8956,7 @@
       <c r="BG130" s="1"/>
       <c r="BH130" s="1"/>
     </row>
-    <row r="131" spans="1:60" ht="18.75">
+    <row r="131" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -9115,7 +9018,7 @@
       <c r="BG131" s="1"/>
       <c r="BH131" s="1"/>
     </row>
-    <row r="132" spans="1:60" ht="18.75">
+    <row r="132" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -9177,7 +9080,7 @@
       <c r="BG132" s="1"/>
       <c r="BH132" s="1"/>
     </row>
-    <row r="133" spans="1:60" ht="18.75">
+    <row r="133" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -9239,7 +9142,7 @@
       <c r="BG133" s="1"/>
       <c r="BH133" s="1"/>
     </row>
-    <row r="134" spans="1:60" ht="18.75">
+    <row r="134" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -9301,7 +9204,7 @@
       <c r="BG134" s="1"/>
       <c r="BH134" s="1"/>
     </row>
-    <row r="135" spans="1:60" ht="18.75">
+    <row r="135" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -9363,7 +9266,7 @@
       <c r="BG135" s="1"/>
       <c r="BH135" s="1"/>
     </row>
-    <row r="136" spans="1:60" ht="18.75">
+    <row r="136" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -9425,7 +9328,7 @@
       <c r="BG136" s="1"/>
       <c r="BH136" s="1"/>
     </row>
-    <row r="137" spans="1:60" ht="18.75">
+    <row r="137" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -9487,7 +9390,7 @@
       <c r="BG137" s="1"/>
       <c r="BH137" s="1"/>
     </row>
-    <row r="138" spans="1:60" ht="18.75">
+    <row r="138" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -9549,7 +9452,7 @@
       <c r="BG138" s="1"/>
       <c r="BH138" s="1"/>
     </row>
-    <row r="139" spans="1:60" ht="18.75">
+    <row r="139" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -9611,7 +9514,7 @@
       <c r="BG139" s="1"/>
       <c r="BH139" s="1"/>
     </row>
-    <row r="140" spans="1:60" ht="18.75">
+    <row r="140" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -9673,7 +9576,7 @@
       <c r="BG140" s="1"/>
       <c r="BH140" s="1"/>
     </row>
-    <row r="141" spans="1:60" ht="18.75">
+    <row r="141" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -9735,7 +9638,7 @@
       <c r="BG141" s="1"/>
       <c r="BH141" s="1"/>
     </row>
-    <row r="142" spans="1:60" ht="18.75">
+    <row r="142" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -9797,7 +9700,7 @@
       <c r="BG142" s="1"/>
       <c r="BH142" s="1"/>
     </row>
-    <row r="143" spans="1:60" ht="18.75">
+    <row r="143" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -9859,7 +9762,7 @@
       <c r="BG143" s="1"/>
       <c r="BH143" s="1"/>
     </row>
-    <row r="144" spans="1:60" ht="18.75">
+    <row r="144" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -9921,7 +9824,7 @@
       <c r="BG144" s="1"/>
       <c r="BH144" s="1"/>
     </row>
-    <row r="145" spans="1:60" ht="18.75">
+    <row r="145" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -9983,7 +9886,7 @@
       <c r="BG145" s="1"/>
       <c r="BH145" s="1"/>
     </row>
-    <row r="146" spans="1:60" ht="18.75">
+    <row r="146" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -10045,7 +9948,7 @@
       <c r="BG146" s="1"/>
       <c r="BH146" s="1"/>
     </row>
-    <row r="147" spans="1:60" ht="18.75">
+    <row r="147" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -10107,7 +10010,7 @@
       <c r="BG147" s="1"/>
       <c r="BH147" s="1"/>
     </row>
-    <row r="148" spans="1:60" ht="18.75">
+    <row r="148" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -10169,7 +10072,7 @@
       <c r="BG148" s="1"/>
       <c r="BH148" s="1"/>
     </row>
-    <row r="149" spans="1:60" ht="18.75">
+    <row r="149" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -10231,7 +10134,7 @@
       <c r="BG149" s="1"/>
       <c r="BH149" s="1"/>
     </row>
-    <row r="150" spans="1:60" ht="18.75">
+    <row r="150" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -10293,7 +10196,7 @@
       <c r="BG150" s="1"/>
       <c r="BH150" s="1"/>
     </row>
-    <row r="151" spans="1:60" ht="18.75">
+    <row r="151" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -10355,7 +10258,7 @@
       <c r="BG151" s="1"/>
       <c r="BH151" s="1"/>
     </row>
-    <row r="152" spans="1:60" ht="18.75">
+    <row r="152" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -10417,7 +10320,7 @@
       <c r="BG152" s="1"/>
       <c r="BH152" s="1"/>
     </row>
-    <row r="153" spans="1:60" ht="18.75">
+    <row r="153" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -10479,7 +10382,7 @@
       <c r="BG153" s="1"/>
       <c r="BH153" s="1"/>
     </row>
-    <row r="154" spans="1:60" ht="18.75">
+    <row r="154" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -10541,7 +10444,7 @@
       <c r="BG154" s="1"/>
       <c r="BH154" s="1"/>
     </row>
-    <row r="155" spans="1:60" ht="18.75">
+    <row r="155" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -10603,7 +10506,7 @@
       <c r="BG155" s="1"/>
       <c r="BH155" s="1"/>
     </row>
-    <row r="156" spans="1:60" ht="18.75">
+    <row r="156" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -10665,7 +10568,7 @@
       <c r="BG156" s="1"/>
       <c r="BH156" s="1"/>
     </row>
-    <row r="157" spans="1:60" ht="18.75">
+    <row r="157" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -10727,7 +10630,7 @@
       <c r="BG157" s="1"/>
       <c r="BH157" s="1"/>
     </row>
-    <row r="158" spans="1:60" ht="18.75">
+    <row r="158" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -10789,7 +10692,7 @@
       <c r="BG158" s="1"/>
       <c r="BH158" s="1"/>
     </row>
-    <row r="159" spans="1:60" ht="18.75">
+    <row r="159" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -10851,7 +10754,7 @@
       <c r="BG159" s="1"/>
       <c r="BH159" s="1"/>
     </row>
-    <row r="160" spans="1:60" ht="18.75">
+    <row r="160" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -10913,7 +10816,7 @@
       <c r="BG160" s="1"/>
       <c r="BH160" s="1"/>
     </row>
-    <row r="161" spans="1:60" ht="18.75">
+    <row r="161" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -10975,7 +10878,7 @@
       <c r="BG161" s="1"/>
       <c r="BH161" s="1"/>
     </row>
-    <row r="162" spans="1:60" ht="18.75">
+    <row r="162" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -11037,7 +10940,7 @@
       <c r="BG162" s="1"/>
       <c r="BH162" s="1"/>
     </row>
-    <row r="163" spans="1:60" ht="18.75">
+    <row r="163" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -11099,7 +11002,7 @@
       <c r="BG163" s="1"/>
       <c r="BH163" s="1"/>
     </row>
-    <row r="164" spans="1:60" ht="18.75">
+    <row r="164" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -11161,7 +11064,7 @@
       <c r="BG164" s="1"/>
       <c r="BH164" s="1"/>
     </row>
-    <row r="165" spans="1:60" ht="18.75">
+    <row r="165" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -11223,7 +11126,7 @@
       <c r="BG165" s="1"/>
       <c r="BH165" s="1"/>
     </row>
-    <row r="166" spans="1:60" ht="18.75">
+    <row r="166" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -11285,7 +11188,7 @@
       <c r="BG166" s="1"/>
       <c r="BH166" s="1"/>
     </row>
-    <row r="167" spans="1:60" ht="18.75">
+    <row r="167" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -11347,7 +11250,7 @@
       <c r="BG167" s="1"/>
       <c r="BH167" s="1"/>
     </row>
-    <row r="168" spans="1:60" ht="18.75">
+    <row r="168" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -11409,7 +11312,7 @@
       <c r="BG168" s="1"/>
       <c r="BH168" s="1"/>
     </row>
-    <row r="169" spans="1:60" ht="18.75">
+    <row r="169" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -11471,7 +11374,7 @@
       <c r="BG169" s="1"/>
       <c r="BH169" s="1"/>
     </row>
-    <row r="170" spans="1:60" ht="18.75">
+    <row r="170" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -11533,7 +11436,7 @@
       <c r="BG170" s="1"/>
       <c r="BH170" s="1"/>
     </row>
-    <row r="171" spans="1:60" ht="18.75">
+    <row r="171" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -11595,7 +11498,7 @@
       <c r="BG171" s="1"/>
       <c r="BH171" s="1"/>
     </row>
-    <row r="172" spans="1:60" ht="18.75">
+    <row r="172" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -11657,7 +11560,7 @@
       <c r="BG172" s="1"/>
       <c r="BH172" s="1"/>
     </row>
-    <row r="173" spans="1:60" ht="18.75">
+    <row r="173" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -11719,7 +11622,7 @@
       <c r="BG173" s="1"/>
       <c r="BH173" s="1"/>
     </row>
-    <row r="174" spans="1:60" ht="18.75">
+    <row r="174" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -11781,7 +11684,7 @@
       <c r="BG174" s="1"/>
       <c r="BH174" s="1"/>
     </row>
-    <row r="175" spans="1:60" ht="18.75">
+    <row r="175" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -11843,7 +11746,7 @@
       <c r="BG175" s="1"/>
       <c r="BH175" s="1"/>
     </row>
-    <row r="176" spans="1:60" ht="18.75">
+    <row r="176" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -11905,7 +11808,7 @@
       <c r="BG176" s="1"/>
       <c r="BH176" s="1"/>
     </row>
-    <row r="177" spans="1:60" ht="18.75">
+    <row r="177" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -11967,7 +11870,7 @@
       <c r="BG177" s="1"/>
       <c r="BH177" s="1"/>
     </row>
-    <row r="178" spans="1:60" ht="18.75">
+    <row r="178" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -12029,7 +11932,7 @@
       <c r="BG178" s="1"/>
       <c r="BH178" s="1"/>
     </row>
-    <row r="179" spans="1:60" ht="18.75">
+    <row r="179" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -12091,7 +11994,7 @@
       <c r="BG179" s="1"/>
       <c r="BH179" s="1"/>
     </row>
-    <row r="180" spans="1:60" ht="18.75">
+    <row r="180" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -12153,7 +12056,7 @@
       <c r="BG180" s="1"/>
       <c r="BH180" s="1"/>
     </row>
-    <row r="181" spans="1:60" ht="18.75">
+    <row r="181" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -12215,7 +12118,7 @@
       <c r="BG181" s="1"/>
       <c r="BH181" s="1"/>
     </row>
-    <row r="182" spans="1:60" ht="18.75">
+    <row r="182" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -12277,7 +12180,7 @@
       <c r="BG182" s="1"/>
       <c r="BH182" s="1"/>
     </row>
-    <row r="183" spans="1:60" ht="18.75">
+    <row r="183" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -12339,7 +12242,7 @@
       <c r="BG183" s="1"/>
       <c r="BH183" s="1"/>
     </row>
-    <row r="184" spans="1:60" ht="18.75">
+    <row r="184" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -12401,7 +12304,7 @@
       <c r="BG184" s="1"/>
       <c r="BH184" s="1"/>
     </row>
-    <row r="185" spans="1:60" ht="18.75">
+    <row r="185" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -12463,7 +12366,7 @@
       <c r="BG185" s="1"/>
       <c r="BH185" s="1"/>
     </row>
-    <row r="186" spans="1:60" ht="18.75">
+    <row r="186" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -12525,7 +12428,7 @@
       <c r="BG186" s="1"/>
       <c r="BH186" s="1"/>
     </row>
-    <row r="187" spans="1:60" ht="18.75">
+    <row r="187" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -12587,7 +12490,7 @@
       <c r="BG187" s="1"/>
       <c r="BH187" s="1"/>
     </row>
-    <row r="188" spans="1:60" ht="18.75">
+    <row r="188" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -12649,7 +12552,7 @@
       <c r="BG188" s="1"/>
       <c r="BH188" s="1"/>
     </row>
-    <row r="189" spans="1:60" ht="18.75">
+    <row r="189" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -12711,7 +12614,7 @@
       <c r="BG189" s="1"/>
       <c r="BH189" s="1"/>
     </row>
-    <row r="190" spans="1:60" ht="18.75">
+    <row r="190" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -12773,7 +12676,7 @@
       <c r="BG190" s="1"/>
       <c r="BH190" s="1"/>
     </row>
-    <row r="191" spans="1:60" ht="18.75">
+    <row r="191" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -12835,7 +12738,7 @@
       <c r="BG191" s="1"/>
       <c r="BH191" s="1"/>
     </row>
-    <row r="192" spans="1:60" ht="18.75">
+    <row r="192" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -12897,7 +12800,7 @@
       <c r="BG192" s="1"/>
       <c r="BH192" s="1"/>
     </row>
-    <row r="193" spans="1:60" ht="18.75">
+    <row r="193" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -12959,7 +12862,7 @@
       <c r="BG193" s="1"/>
       <c r="BH193" s="1"/>
     </row>
-    <row r="194" spans="1:60" ht="18.75">
+    <row r="194" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -13021,7 +12924,7 @@
       <c r="BG194" s="1"/>
       <c r="BH194" s="1"/>
     </row>
-    <row r="195" spans="1:60" ht="18.75">
+    <row r="195" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -13083,7 +12986,7 @@
       <c r="BG195" s="1"/>
       <c r="BH195" s="1"/>
     </row>
-    <row r="196" spans="1:60" ht="18.75">
+    <row r="196" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -13145,7 +13048,7 @@
       <c r="BG196" s="1"/>
       <c r="BH196" s="1"/>
     </row>
-    <row r="197" spans="1:60" ht="18.75">
+    <row r="197" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -13207,7 +13110,7 @@
       <c r="BG197" s="1"/>
       <c r="BH197" s="1"/>
     </row>
-    <row r="198" spans="1:60" ht="18.75">
+    <row r="198" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -13269,7 +13172,7 @@
       <c r="BG198" s="1"/>
       <c r="BH198" s="1"/>
     </row>
-    <row r="199" spans="1:60" ht="18.75">
+    <row r="199" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -13331,7 +13234,7 @@
       <c r="BG199" s="1"/>
       <c r="BH199" s="1"/>
     </row>
-    <row r="200" spans="1:60" ht="18.75">
+    <row r="200" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -13393,7 +13296,7 @@
       <c r="BG200" s="1"/>
       <c r="BH200" s="1"/>
     </row>
-    <row r="201" spans="1:60" ht="18.75">
+    <row r="201" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -13455,7 +13358,7 @@
       <c r="BG201" s="1"/>
       <c r="BH201" s="1"/>
     </row>
-    <row r="202" spans="1:60" ht="18.75">
+    <row r="202" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -13517,7 +13420,7 @@
       <c r="BG202" s="1"/>
       <c r="BH202" s="1"/>
     </row>
-    <row r="203" spans="1:60" ht="18.75">
+    <row r="203" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -13579,7 +13482,7 @@
       <c r="BG203" s="1"/>
       <c r="BH203" s="1"/>
     </row>
-    <row r="204" spans="1:60" ht="18.75">
+    <row r="204" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -13641,7 +13544,7 @@
       <c r="BG204" s="1"/>
       <c r="BH204" s="1"/>
     </row>
-    <row r="205" spans="1:60" ht="18.75">
+    <row r="205" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -13703,7 +13606,7 @@
       <c r="BG205" s="1"/>
       <c r="BH205" s="1"/>
     </row>
-    <row r="206" spans="1:60" ht="18.75">
+    <row r="206" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -13765,7 +13668,7 @@
       <c r="BG206" s="1"/>
       <c r="BH206" s="1"/>
     </row>
-    <row r="207" spans="1:60" ht="18.75">
+    <row r="207" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -13827,7 +13730,7 @@
       <c r="BG207" s="1"/>
       <c r="BH207" s="1"/>
     </row>
-    <row r="208" spans="1:60" ht="18.75">
+    <row r="208" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -13889,7 +13792,7 @@
       <c r="BG208" s="1"/>
       <c r="BH208" s="1"/>
     </row>
-    <row r="209" spans="1:60" ht="18.75">
+    <row r="209" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -13951,7 +13854,7 @@
       <c r="BG209" s="1"/>
       <c r="BH209" s="1"/>
     </row>
-    <row r="210" spans="1:60" ht="18.75">
+    <row r="210" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -14013,7 +13916,7 @@
       <c r="BG210" s="1"/>
       <c r="BH210" s="1"/>
     </row>
-    <row r="211" spans="1:60" ht="18.75">
+    <row r="211" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -14075,7 +13978,7 @@
       <c r="BG211" s="1"/>
       <c r="BH211" s="1"/>
     </row>
-    <row r="212" spans="1:60" ht="18.75">
+    <row r="212" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -14137,7 +14040,7 @@
       <c r="BG212" s="1"/>
       <c r="BH212" s="1"/>
     </row>
-    <row r="213" spans="1:60" ht="18.75">
+    <row r="213" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -14199,7 +14102,7 @@
       <c r="BG213" s="1"/>
       <c r="BH213" s="1"/>
     </row>
-    <row r="214" spans="1:60" ht="18.75">
+    <row r="214" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -14261,7 +14164,7 @@
       <c r="BG214" s="1"/>
       <c r="BH214" s="1"/>
     </row>
-    <row r="215" spans="1:60" ht="18.75">
+    <row r="215" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -14323,7 +14226,7 @@
       <c r="BG215" s="1"/>
       <c r="BH215" s="1"/>
     </row>
-    <row r="216" spans="1:60" ht="18.75">
+    <row r="216" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -14385,7 +14288,7 @@
       <c r="BG216" s="1"/>
       <c r="BH216" s="1"/>
     </row>
-    <row r="217" spans="1:60" ht="18.75">
+    <row r="217" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -14447,7 +14350,7 @@
       <c r="BG217" s="1"/>
       <c r="BH217" s="1"/>
     </row>
-    <row r="218" spans="1:60" ht="18.75">
+    <row r="218" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -14509,7 +14412,7 @@
       <c r="BG218" s="1"/>
       <c r="BH218" s="1"/>
     </row>
-    <row r="219" spans="1:60" ht="18.75">
+    <row r="219" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -14571,7 +14474,7 @@
       <c r="BG219" s="1"/>
       <c r="BH219" s="1"/>
     </row>
-    <row r="220" spans="1:60" ht="18.75">
+    <row r="220" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -14633,7 +14536,7 @@
       <c r="BG220" s="1"/>
       <c r="BH220" s="1"/>
     </row>
-    <row r="221" spans="1:60" ht="18.75">
+    <row r="221" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -14695,7 +14598,7 @@
       <c r="BG221" s="1"/>
       <c r="BH221" s="1"/>
     </row>
-    <row r="222" spans="1:60" ht="18.75">
+    <row r="222" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -14757,7 +14660,7 @@
       <c r="BG222" s="1"/>
       <c r="BH222" s="1"/>
     </row>
-    <row r="223" spans="1:60" ht="18.75">
+    <row r="223" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -14819,7 +14722,7 @@
       <c r="BG223" s="1"/>
       <c r="BH223" s="1"/>
     </row>
-    <row r="224" spans="1:60" ht="18.75">
+    <row r="224" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -14881,7 +14784,7 @@
       <c r="BG224" s="1"/>
       <c r="BH224" s="1"/>
     </row>
-    <row r="225" spans="1:60" ht="18.75">
+    <row r="225" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -14943,7 +14846,7 @@
       <c r="BG225" s="1"/>
       <c r="BH225" s="1"/>
     </row>
-    <row r="226" spans="1:60" ht="18.75">
+    <row r="226" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -15005,7 +14908,7 @@
       <c r="BG226" s="1"/>
       <c r="BH226" s="1"/>
     </row>
-    <row r="227" spans="1:60" ht="18.75">
+    <row r="227" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -15067,7 +14970,7 @@
       <c r="BG227" s="1"/>
       <c r="BH227" s="1"/>
     </row>
-    <row r="228" spans="1:60" ht="18.75">
+    <row r="228" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -15129,7 +15032,7 @@
       <c r="BG228" s="1"/>
       <c r="BH228" s="1"/>
     </row>
-    <row r="229" spans="1:60" ht="18.75">
+    <row r="229" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -15191,7 +15094,7 @@
       <c r="BG229" s="1"/>
       <c r="BH229" s="1"/>
     </row>
-    <row r="230" spans="1:60" ht="18.75">
+    <row r="230" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -15253,7 +15156,7 @@
       <c r="BG230" s="1"/>
       <c r="BH230" s="1"/>
     </row>
-    <row r="231" spans="1:60" ht="18.75">
+    <row r="231" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -15315,7 +15218,7 @@
       <c r="BG231" s="1"/>
       <c r="BH231" s="1"/>
     </row>
-    <row r="232" spans="1:60" ht="18.75">
+    <row r="232" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -15377,7 +15280,7 @@
       <c r="BG232" s="1"/>
       <c r="BH232" s="1"/>
     </row>
-    <row r="233" spans="1:60" ht="18.75">
+    <row r="233" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -15439,7 +15342,7 @@
       <c r="BG233" s="1"/>
       <c r="BH233" s="1"/>
     </row>
-    <row r="234" spans="1:60" ht="18.75">
+    <row r="234" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -15501,7 +15404,7 @@
       <c r="BG234" s="1"/>
       <c r="BH234" s="1"/>
     </row>
-    <row r="235" spans="1:60" ht="18.75">
+    <row r="235" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -15563,7 +15466,7 @@
       <c r="BG235" s="1"/>
       <c r="BH235" s="1"/>
     </row>
-    <row r="236" spans="1:60" ht="18.75">
+    <row r="236" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -15625,7 +15528,7 @@
       <c r="BG236" s="1"/>
       <c r="BH236" s="1"/>
     </row>
-    <row r="237" spans="1:60" ht="18.75">
+    <row r="237" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -15687,7 +15590,7 @@
       <c r="BG237" s="1"/>
       <c r="BH237" s="1"/>
     </row>
-    <row r="238" spans="1:60" ht="18.75">
+    <row r="238" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -15749,7 +15652,7 @@
       <c r="BG238" s="1"/>
       <c r="BH238" s="1"/>
     </row>
-    <row r="239" spans="1:60" ht="18.75">
+    <row r="239" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -15811,7 +15714,7 @@
       <c r="BG239" s="1"/>
       <c r="BH239" s="1"/>
     </row>
-    <row r="240" spans="1:60" ht="18.75">
+    <row r="240" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -15873,7 +15776,7 @@
       <c r="BG240" s="1"/>
       <c r="BH240" s="1"/>
     </row>
-    <row r="241" spans="1:60" ht="18.75">
+    <row r="241" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -15935,7 +15838,7 @@
       <c r="BG241" s="1"/>
       <c r="BH241" s="1"/>
     </row>
-    <row r="242" spans="1:60" ht="18.75">
+    <row r="242" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -15997,7 +15900,7 @@
       <c r="BG242" s="1"/>
       <c r="BH242" s="1"/>
     </row>
-    <row r="243" spans="1:60" ht="18.75">
+    <row r="243" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -16059,7 +15962,7 @@
       <c r="BG243" s="1"/>
       <c r="BH243" s="1"/>
     </row>
-    <row r="244" spans="1:60" ht="18.75">
+    <row r="244" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -16121,7 +16024,7 @@
       <c r="BG244" s="1"/>
       <c r="BH244" s="1"/>
     </row>
-    <row r="245" spans="1:60" ht="18.75">
+    <row r="245" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -16183,7 +16086,7 @@
       <c r="BG245" s="1"/>
       <c r="BH245" s="1"/>
     </row>
-    <row r="246" spans="1:60" ht="18.75">
+    <row r="246" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -16245,7 +16148,7 @@
       <c r="BG246" s="1"/>
       <c r="BH246" s="1"/>
     </row>
-    <row r="247" spans="1:60" ht="18.75">
+    <row r="247" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -16307,7 +16210,7 @@
       <c r="BG247" s="1"/>
       <c r="BH247" s="1"/>
     </row>
-    <row r="248" spans="1:60" ht="18.75">
+    <row r="248" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -16369,7 +16272,7 @@
       <c r="BG248" s="1"/>
       <c r="BH248" s="1"/>
     </row>
-    <row r="249" spans="1:60" ht="18.75">
+    <row r="249" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -16431,7 +16334,7 @@
       <c r="BG249" s="1"/>
       <c r="BH249" s="1"/>
     </row>
-    <row r="250" spans="1:60" ht="18.75">
+    <row r="250" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -16493,7 +16396,7 @@
       <c r="BG250" s="1"/>
       <c r="BH250" s="1"/>
     </row>
-    <row r="251" spans="1:60" ht="18.75">
+    <row r="251" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -16555,7 +16458,7 @@
       <c r="BG251" s="1"/>
       <c r="BH251" s="1"/>
     </row>
-    <row r="252" spans="1:60" ht="18.75">
+    <row r="252" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -16617,7 +16520,7 @@
       <c r="BG252" s="1"/>
       <c r="BH252" s="1"/>
     </row>
-    <row r="253" spans="1:60" ht="18.75">
+    <row r="253" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -16679,7 +16582,7 @@
       <c r="BG253" s="1"/>
       <c r="BH253" s="1"/>
     </row>
-    <row r="254" spans="1:60" ht="18.75">
+    <row r="254" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -16741,7 +16644,7 @@
       <c r="BG254" s="1"/>
       <c r="BH254" s="1"/>
     </row>
-    <row r="255" spans="1:60" ht="18.75">
+    <row r="255" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -16803,7 +16706,7 @@
       <c r="BG255" s="1"/>
       <c r="BH255" s="1"/>
     </row>
-    <row r="256" spans="1:60" ht="18.75">
+    <row r="256" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -16865,7 +16768,7 @@
       <c r="BG256" s="1"/>
       <c r="BH256" s="1"/>
     </row>
-    <row r="257" spans="1:60" ht="18.75">
+    <row r="257" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -16927,7 +16830,7 @@
       <c r="BG257" s="1"/>
       <c r="BH257" s="1"/>
     </row>
-    <row r="258" spans="1:60" ht="18.75">
+    <row r="258" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -16989,7 +16892,7 @@
       <c r="BG258" s="1"/>
       <c r="BH258" s="1"/>
     </row>
-    <row r="259" spans="1:60" ht="18.75">
+    <row r="259" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -17051,7 +16954,7 @@
       <c r="BG259" s="1"/>
       <c r="BH259" s="1"/>
     </row>
-    <row r="260" spans="1:60" ht="18.75">
+    <row r="260" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -17113,7 +17016,7 @@
       <c r="BG260" s="1"/>
       <c r="BH260" s="1"/>
     </row>
-    <row r="261" spans="1:60" ht="18.75">
+    <row r="261" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -17175,7 +17078,7 @@
       <c r="BG261" s="1"/>
       <c r="BH261" s="1"/>
     </row>
-    <row r="262" spans="1:60" ht="18.75">
+    <row r="262" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -17237,7 +17140,7 @@
       <c r="BG262" s="1"/>
       <c r="BH262" s="1"/>
     </row>
-    <row r="263" spans="1:60" ht="18.75">
+    <row r="263" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -17299,7 +17202,7 @@
       <c r="BG263" s="1"/>
       <c r="BH263" s="1"/>
     </row>
-    <row r="264" spans="1:60" ht="18.75">
+    <row r="264" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -17361,7 +17264,7 @@
       <c r="BG264" s="1"/>
       <c r="BH264" s="1"/>
     </row>
-    <row r="265" spans="1:60" ht="18.75">
+    <row r="265" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -17423,7 +17326,7 @@
       <c r="BG265" s="1"/>
       <c r="BH265" s="1"/>
     </row>
-    <row r="266" spans="1:60" ht="18.75">
+    <row r="266" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -17485,7 +17388,7 @@
       <c r="BG266" s="1"/>
       <c r="BH266" s="1"/>
     </row>
-    <row r="267" spans="1:60" ht="18.75">
+    <row r="267" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -17547,7 +17450,7 @@
       <c r="BG267" s="1"/>
       <c r="BH267" s="1"/>
     </row>
-    <row r="268" spans="1:60" ht="18.75">
+    <row r="268" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -17609,7 +17512,7 @@
       <c r="BG268" s="1"/>
       <c r="BH268" s="1"/>
     </row>
-    <row r="269" spans="1:60" ht="18.75">
+    <row r="269" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -17671,7 +17574,7 @@
       <c r="BG269" s="1"/>
       <c r="BH269" s="1"/>
     </row>
-    <row r="270" spans="1:60" ht="18.75">
+    <row r="270" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -17733,7 +17636,7 @@
       <c r="BG270" s="1"/>
       <c r="BH270" s="1"/>
     </row>
-    <row r="271" spans="1:60" ht="18.75">
+    <row r="271" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -17795,7 +17698,7 @@
       <c r="BG271" s="1"/>
       <c r="BH271" s="1"/>
     </row>
-    <row r="272" spans="1:60" ht="18.75">
+    <row r="272" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -17857,7 +17760,7 @@
       <c r="BG272" s="1"/>
       <c r="BH272" s="1"/>
     </row>
-    <row r="273" spans="1:60" ht="18.75">
+    <row r="273" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -17919,7 +17822,7 @@
       <c r="BG273" s="1"/>
       <c r="BH273" s="1"/>
     </row>
-    <row r="274" spans="1:60" ht="18.75">
+    <row r="274" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -17981,7 +17884,7 @@
       <c r="BG274" s="1"/>
       <c r="BH274" s="1"/>
     </row>
-    <row r="275" spans="1:60" ht="18.75">
+    <row r="275" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -18043,7 +17946,7 @@
       <c r="BG275" s="1"/>
       <c r="BH275" s="1"/>
     </row>
-    <row r="276" spans="1:60" ht="18.75">
+    <row r="276" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -18105,7 +18008,7 @@
       <c r="BG276" s="1"/>
       <c r="BH276" s="1"/>
     </row>
-    <row r="277" spans="1:60" ht="18.75">
+    <row r="277" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -18167,7 +18070,7 @@
       <c r="BG277" s="1"/>
       <c r="BH277" s="1"/>
     </row>
-    <row r="278" spans="1:60" ht="18.75">
+    <row r="278" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -18229,7 +18132,7 @@
       <c r="BG278" s="1"/>
       <c r="BH278" s="1"/>
     </row>
-    <row r="279" spans="1:60" ht="18.75">
+    <row r="279" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -18291,7 +18194,7 @@
       <c r="BG279" s="1"/>
       <c r="BH279" s="1"/>
     </row>
-    <row r="280" spans="1:60" ht="18.75">
+    <row r="280" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -18353,7 +18256,7 @@
       <c r="BG280" s="1"/>
       <c r="BH280" s="1"/>
     </row>
-    <row r="281" spans="1:60" ht="18.75">
+    <row r="281" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -18415,7 +18318,7 @@
       <c r="BG281" s="1"/>
       <c r="BH281" s="1"/>
     </row>
-    <row r="282" spans="1:60" ht="18.75">
+    <row r="282" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -18477,7 +18380,7 @@
       <c r="BG282" s="1"/>
       <c r="BH282" s="1"/>
     </row>
-    <row r="283" spans="1:60" ht="18.75">
+    <row r="283" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -18539,7 +18442,7 @@
       <c r="BG283" s="1"/>
       <c r="BH283" s="1"/>
     </row>
-    <row r="284" spans="1:60" ht="18.75">
+    <row r="284" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -18601,7 +18504,7 @@
       <c r="BG284" s="1"/>
       <c r="BH284" s="1"/>
     </row>
-    <row r="285" spans="1:60" ht="18.75">
+    <row r="285" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -18663,7 +18566,7 @@
       <c r="BG285" s="1"/>
       <c r="BH285" s="1"/>
     </row>
-    <row r="286" spans="1:60" ht="18.75">
+    <row r="286" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -18725,7 +18628,7 @@
       <c r="BG286" s="1"/>
       <c r="BH286" s="1"/>
     </row>
-    <row r="287" spans="1:60" ht="18.75">
+    <row r="287" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -18787,7 +18690,7 @@
       <c r="BG287" s="1"/>
       <c r="BH287" s="1"/>
     </row>
-    <row r="288" spans="1:60" ht="18.75">
+    <row r="288" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -18849,7 +18752,7 @@
       <c r="BG288" s="1"/>
       <c r="BH288" s="1"/>
     </row>
-    <row r="289" spans="1:60" ht="18.75">
+    <row r="289" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -18911,7 +18814,7 @@
       <c r="BG289" s="1"/>
       <c r="BH289" s="1"/>
     </row>
-    <row r="290" spans="1:60" ht="18.75">
+    <row r="290" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -18973,7 +18876,7 @@
       <c r="BG290" s="1"/>
       <c r="BH290" s="1"/>
     </row>
-    <row r="291" spans="1:60" ht="18.75">
+    <row r="291" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -19035,7 +18938,7 @@
       <c r="BG291" s="1"/>
       <c r="BH291" s="1"/>
     </row>
-    <row r="292" spans="1:60" ht="18.75">
+    <row r="292" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -19097,7 +19000,7 @@
       <c r="BG292" s="1"/>
       <c r="BH292" s="1"/>
     </row>
-    <row r="293" spans="1:60" ht="18.75">
+    <row r="293" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -19159,7 +19062,7 @@
       <c r="BG293" s="1"/>
       <c r="BH293" s="1"/>
     </row>
-    <row r="294" spans="1:60" ht="18.75">
+    <row r="294" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -19221,7 +19124,7 @@
       <c r="BG294" s="1"/>
       <c r="BH294" s="1"/>
     </row>
-    <row r="295" spans="1:60" ht="18.75">
+    <row r="295" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -19283,7 +19186,7 @@
       <c r="BG295" s="1"/>
       <c r="BH295" s="1"/>
     </row>
-    <row r="296" spans="1:60" ht="18.75">
+    <row r="296" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -19345,7 +19248,7 @@
       <c r="BG296" s="1"/>
       <c r="BH296" s="1"/>
     </row>
-    <row r="297" spans="1:60" ht="18.75">
+    <row r="297" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -19407,7 +19310,7 @@
       <c r="BG297" s="1"/>
       <c r="BH297" s="1"/>
     </row>
-    <row r="298" spans="1:60" ht="18.75">
+    <row r="298" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -19469,7 +19372,7 @@
       <c r="BG298" s="1"/>
       <c r="BH298" s="1"/>
     </row>
-    <row r="299" spans="1:60" ht="18.75">
+    <row r="299" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -19531,7 +19434,7 @@
       <c r="BG299" s="1"/>
       <c r="BH299" s="1"/>
     </row>
-    <row r="300" spans="1:60" ht="18.75">
+    <row r="300" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -19593,7 +19496,7 @@
       <c r="BG300" s="1"/>
       <c r="BH300" s="1"/>
     </row>
-    <row r="301" spans="1:60" ht="18.75">
+    <row r="301" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -19655,7 +19558,7 @@
       <c r="BG301" s="1"/>
       <c r="BH301" s="1"/>
     </row>
-    <row r="302" spans="1:60" ht="18.75">
+    <row r="302" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -19717,7 +19620,7 @@
       <c r="BG302" s="1"/>
       <c r="BH302" s="1"/>
     </row>
-    <row r="303" spans="1:60" ht="18.75">
+    <row r="303" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -19779,7 +19682,7 @@
       <c r="BG303" s="1"/>
       <c r="BH303" s="1"/>
     </row>
-    <row r="304" spans="1:60" ht="18.75">
+    <row r="304" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -19841,7 +19744,7 @@
       <c r="BG304" s="1"/>
       <c r="BH304" s="1"/>
     </row>
-    <row r="305" spans="1:60" ht="18.75">
+    <row r="305" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -19903,7 +19806,7 @@
       <c r="BG305" s="1"/>
       <c r="BH305" s="1"/>
     </row>
-    <row r="306" spans="1:60" ht="18.75">
+    <row r="306" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -19965,7 +19868,7 @@
       <c r="BG306" s="1"/>
       <c r="BH306" s="1"/>
     </row>
-    <row r="307" spans="1:60" ht="18.75">
+    <row r="307" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -20027,7 +19930,7 @@
       <c r="BG307" s="1"/>
       <c r="BH307" s="1"/>
     </row>
-    <row r="308" spans="1:60" ht="18.75">
+    <row r="308" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -20089,7 +19992,7 @@
       <c r="BG308" s="1"/>
       <c r="BH308" s="1"/>
     </row>
-    <row r="309" spans="1:60" ht="18.75">
+    <row r="309" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -20151,7 +20054,7 @@
       <c r="BG309" s="1"/>
       <c r="BH309" s="1"/>
     </row>
-    <row r="310" spans="1:60" ht="18.75">
+    <row r="310" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -20213,7 +20116,7 @@
       <c r="BG310" s="1"/>
       <c r="BH310" s="1"/>
     </row>
-    <row r="311" spans="1:60" ht="18.75">
+    <row r="311" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -20275,7 +20178,7 @@
       <c r="BG311" s="1"/>
       <c r="BH311" s="1"/>
     </row>
-    <row r="312" spans="1:60" ht="18.75">
+    <row r="312" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -20337,7 +20240,7 @@
       <c r="BG312" s="1"/>
       <c r="BH312" s="1"/>
     </row>
-    <row r="313" spans="1:60" ht="18.75">
+    <row r="313" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -20399,7 +20302,7 @@
       <c r="BG313" s="1"/>
       <c r="BH313" s="1"/>
     </row>
-    <row r="314" spans="1:60" ht="18.75">
+    <row r="314" spans="1:60" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -20461,192 +20364,6 @@
       <c r="BG314" s="1"/>
       <c r="BH314" s="1"/>
     </row>
-    <row r="315" spans="1:60" ht="18.75">
-      <c r="A315" s="1"/>
-      <c r="B315" s="1"/>
-      <c r="C315" s="1"/>
-      <c r="D315" s="1"/>
-      <c r="E315" s="1"/>
-      <c r="F315" s="1"/>
-      <c r="G315" s="1"/>
-      <c r="H315" s="1"/>
-      <c r="I315" s="1"/>
-      <c r="J315" s="1"/>
-      <c r="K315" s="1"/>
-      <c r="L315" s="1"/>
-      <c r="M315" s="1"/>
-      <c r="N315" s="1"/>
-      <c r="O315" s="1"/>
-      <c r="P315" s="1"/>
-      <c r="Q315" s="1"/>
-      <c r="R315" s="1"/>
-      <c r="S315" s="1"/>
-      <c r="T315" s="1"/>
-      <c r="U315" s="1"/>
-      <c r="V315" s="1"/>
-      <c r="W315" s="1"/>
-      <c r="X315" s="1"/>
-      <c r="Y315" s="1"/>
-      <c r="Z315" s="1"/>
-      <c r="AA315" s="1"/>
-      <c r="AB315" s="1"/>
-      <c r="AC315" s="1"/>
-      <c r="AD315" s="1"/>
-      <c r="AE315" s="1"/>
-      <c r="AF315" s="1"/>
-      <c r="AG315" s="1"/>
-      <c r="AH315" s="1"/>
-      <c r="AI315" s="1"/>
-      <c r="AJ315" s="1"/>
-      <c r="AK315" s="1"/>
-      <c r="AL315" s="1"/>
-      <c r="AM315" s="1"/>
-      <c r="AN315" s="1"/>
-      <c r="AO315" s="1"/>
-      <c r="AP315" s="1"/>
-      <c r="AQ315" s="1"/>
-      <c r="AR315" s="1"/>
-      <c r="AS315" s="1"/>
-      <c r="AT315" s="1"/>
-      <c r="AU315" s="1"/>
-      <c r="AV315" s="1"/>
-      <c r="AW315" s="1"/>
-      <c r="AX315" s="1"/>
-      <c r="AY315" s="1"/>
-      <c r="AZ315" s="1"/>
-      <c r="BA315" s="1"/>
-      <c r="BB315" s="1"/>
-      <c r="BC315" s="1"/>
-      <c r="BD315" s="1"/>
-      <c r="BE315" s="1"/>
-      <c r="BF315" s="1"/>
-      <c r="BG315" s="1"/>
-      <c r="BH315" s="1"/>
-    </row>
-    <row r="316" spans="1:60" ht="18.75">
-      <c r="A316" s="1"/>
-      <c r="B316" s="1"/>
-      <c r="C316" s="1"/>
-      <c r="D316" s="1"/>
-      <c r="E316" s="1"/>
-      <c r="F316" s="1"/>
-      <c r="G316" s="1"/>
-      <c r="H316" s="1"/>
-      <c r="I316" s="1"/>
-      <c r="J316" s="1"/>
-      <c r="K316" s="1"/>
-      <c r="L316" s="1"/>
-      <c r="M316" s="1"/>
-      <c r="N316" s="1"/>
-      <c r="O316" s="1"/>
-      <c r="P316" s="1"/>
-      <c r="Q316" s="1"/>
-      <c r="R316" s="1"/>
-      <c r="S316" s="1"/>
-      <c r="T316" s="1"/>
-      <c r="U316" s="1"/>
-      <c r="V316" s="1"/>
-      <c r="W316" s="1"/>
-      <c r="X316" s="1"/>
-      <c r="Y316" s="1"/>
-      <c r="Z316" s="1"/>
-      <c r="AA316" s="1"/>
-      <c r="AB316" s="1"/>
-      <c r="AC316" s="1"/>
-      <c r="AD316" s="1"/>
-      <c r="AE316" s="1"/>
-      <c r="AF316" s="1"/>
-      <c r="AG316" s="1"/>
-      <c r="AH316" s="1"/>
-      <c r="AI316" s="1"/>
-      <c r="AJ316" s="1"/>
-      <c r="AK316" s="1"/>
-      <c r="AL316" s="1"/>
-      <c r="AM316" s="1"/>
-      <c r="AN316" s="1"/>
-      <c r="AO316" s="1"/>
-      <c r="AP316" s="1"/>
-      <c r="AQ316" s="1"/>
-      <c r="AR316" s="1"/>
-      <c r="AS316" s="1"/>
-      <c r="AT316" s="1"/>
-      <c r="AU316" s="1"/>
-      <c r="AV316" s="1"/>
-      <c r="AW316" s="1"/>
-      <c r="AX316" s="1"/>
-      <c r="AY316" s="1"/>
-      <c r="AZ316" s="1"/>
-      <c r="BA316" s="1"/>
-      <c r="BB316" s="1"/>
-      <c r="BC316" s="1"/>
-      <c r="BD316" s="1"/>
-      <c r="BE316" s="1"/>
-      <c r="BF316" s="1"/>
-      <c r="BG316" s="1"/>
-      <c r="BH316" s="1"/>
-    </row>
-    <row r="317" spans="1:60" ht="18.75">
-      <c r="A317" s="1"/>
-      <c r="B317" s="1"/>
-      <c r="C317" s="1"/>
-      <c r="D317" s="1"/>
-      <c r="E317" s="1"/>
-      <c r="F317" s="1"/>
-      <c r="G317" s="1"/>
-      <c r="H317" s="1"/>
-      <c r="I317" s="1"/>
-      <c r="J317" s="1"/>
-      <c r="K317" s="1"/>
-      <c r="L317" s="1"/>
-      <c r="M317" s="1"/>
-      <c r="N317" s="1"/>
-      <c r="O317" s="1"/>
-      <c r="P317" s="1"/>
-      <c r="Q317" s="1"/>
-      <c r="R317" s="1"/>
-      <c r="S317" s="1"/>
-      <c r="T317" s="1"/>
-      <c r="U317" s="1"/>
-      <c r="V317" s="1"/>
-      <c r="W317" s="1"/>
-      <c r="X317" s="1"/>
-      <c r="Y317" s="1"/>
-      <c r="Z317" s="1"/>
-      <c r="AA317" s="1"/>
-      <c r="AB317" s="1"/>
-      <c r="AC317" s="1"/>
-      <c r="AD317" s="1"/>
-      <c r="AE317" s="1"/>
-      <c r="AF317" s="1"/>
-      <c r="AG317" s="1"/>
-      <c r="AH317" s="1"/>
-      <c r="AI317" s="1"/>
-      <c r="AJ317" s="1"/>
-      <c r="AK317" s="1"/>
-      <c r="AL317" s="1"/>
-      <c r="AM317" s="1"/>
-      <c r="AN317" s="1"/>
-      <c r="AO317" s="1"/>
-      <c r="AP317" s="1"/>
-      <c r="AQ317" s="1"/>
-      <c r="AR317" s="1"/>
-      <c r="AS317" s="1"/>
-      <c r="AT317" s="1"/>
-      <c r="AU317" s="1"/>
-      <c r="AV317" s="1"/>
-      <c r="AW317" s="1"/>
-      <c r="AX317" s="1"/>
-      <c r="AY317" s="1"/>
-      <c r="AZ317" s="1"/>
-      <c r="BA317" s="1"/>
-      <c r="BB317" s="1"/>
-      <c r="BC317" s="1"/>
-      <c r="BD317" s="1"/>
-      <c r="BE317" s="1"/>
-      <c r="BF317" s="1"/>
-      <c r="BG317" s="1"/>
-      <c r="BH317" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="63">
     <mergeCell ref="Q6:R6"/>
@@ -20671,11 +20388,9 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
-    <mergeCell ref="K8:M8"/>
     <mergeCell ref="K9:M9"/>
     <mergeCell ref="K10:M10"/>
     <mergeCell ref="K11:M11"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="G10:J10"/>
@@ -20698,20 +20413,22 @@
     <mergeCell ref="N11:P11"/>
     <mergeCell ref="O4:R4"/>
     <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E7:F7"/>
     <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="Q7:R7"/>
     <mergeCell ref="Q8:R8"/>
     <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="N7:P7"/>
     <mergeCell ref="N8:P8"/>
     <mergeCell ref="N9:P9"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:P7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.5" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20720,28 +20437,13 @@
     <oddFooter>&amp;L&amp;"Arial,Regular"&amp;16Issue No.:(01)&amp;C&amp;"Arial,Regular"&amp;16F-QMS-OP/01&amp;R&amp;"Arial,Regular"&amp;16Rev:0(03/08/2025)</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="11" max="18" man="1"/>
+    <brk id="9" max="18" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004CDCEE4EE84D404B82284A61FE843539" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ae19de599fe27e6031435f16763f07a6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="77235fe3-6083-42b6-a91b-85e1cdcb4cef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d001d93049eda255589b477e8a1abdba" ns2:_="">
     <xsd:import namespace="77235fe3-6083-42b6-a91b-85e1cdcb4cef"/>
@@ -20879,14 +20581,52 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E82A2895-2473-4316-85E7-BF1713AD2263}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EAAE0AB-8859-4E03-BF89-2635392A2BCC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="77235fe3-6083-42b6-a91b-85e1cdcb4cef"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97D78958-CD45-4955-8811-4B4FBD225369}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E82A2895-2473-4316-85E7-BF1713AD2263}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EAAE0AB-8859-4E03-BF89-2635392A2BCC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97D78958-CD45-4955-8811-4B4FBD225369}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>